--- a/Data Collection/Persons/Hazel Brugger/Hazel_Brugger_all.xlsx
+++ b/Data Collection/Persons/Hazel Brugger/Hazel_Brugger_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Hazel Brugger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Hazel Brugger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06597B4B-C20F-4144-9335-B8DBA9F4FE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B945F37-DCA3-9144-BB5D-027AF44234CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="440">
   <si>
     <t>title</t>
   </si>
@@ -201,16 +201,7 @@
 Auch gegen die generell zu hohen Kosten für werdende Eltern trage das Gesetz zu wenig bei.</t>
   </si>
   <si>
-    <t>Dokumentarfilm "The Dissident"</t>
-  </si>
-  <si>
     <t>ZDF</t>
-  </si>
-  <si>
-    <t>Heroes - Aus dem Leben von Comedians - Erika Ratcliffe trifft Heinz Strunk. Videolänge: 29 min · Kultur. Thomas Spitzer, Salim Samatou und Hazel Brugger ...</t>
-  </si>
-  <si>
-    <t>https://www.zdf.de/kultur/kulturzeit/dokumentarfilm-the-dissident-100.html</t>
   </si>
   <si>
     <t>Das Passwort muss mindestens einen Großbuchstaben enthalten.
@@ -220,45 +211,7 @@
 BenutzernameDas Passwort muss mindestens 8 Zeichen lang sein, einen Großbuchstaben und eine Ziffer enthalten.</t>
   </si>
   <si>
-    <t>Marie Nasemann: Darum ist das Model so schnell wieder schwanger</t>
-  </si>
-  <si>
     <t>GALA.de</t>
-  </si>
-  <si>
-    <t>Hazel Brugger Die Komikerin zeigt ihr Mutterglück. 15.04.2021. Tschüss, Blazer – hallo, Bikini! Ihr Homeoffice verlegt Marie Nasemann bei sommerlichen ...</t>
-  </si>
-  <si>
-    <t>https://www.gala.de/stars/news/marie-nasemann--darum-ist-das-model-so-schnell-wieder-schwanger-22426838.html</t>
-  </si>
-  <si>
-    <t>Schöne Neuigkeiten von Marie Nasemann: Sie ist wieder schwanger – und das ganz schön schnell!
-In der aktuellen Folge verkündete das Paar überraschend die süßen Neuigkeiten: Das Model befindet sich wieder in anderen Umständen!
-DATENSCHUTZ-EINSTELLUNGEN Hier können Sie die Einstellungen für die Anbieter ändern, deren Inhalte sie anzeigen möchten.
-Ob sie ein Mädchen oder einen Jungen bekommen, wissen die Zweifach-Eltern in spe noch nicht – das Geschlecht ist ihnen jedoch egal.
-Danach wurde sie wieder schwanger, während der Schwangerschaft litt sie zeitweise unter starker Übelkeit.</t>
-  </si>
-  <si>
-    <t>500. Folge von "Willkommen Österreich": Stermann und ...</t>
-  </si>
-  <si>
-    <t>Salzburger Nachrichten</t>
-  </si>
-  <si>
-    <t>2 Apr 2021</t>
-  </si>
-  <si>
-    <t>Darum waren wir froh, dass zumindest eine Zeit lang Hazel Brugger mitgemacht hat. Grissemann: Wir haben nur eine Frau im Team: Sophie. Aber die ist ...</t>
-  </si>
-  <si>
-    <t>https://www.sn.at/panorama/medien/500-folge-von-willkommen-oesterreich-stermann-und-grissemann-im-interview-manchmal-gelingen-kleine-wunder-101910274</t>
-  </si>
-  <si>
-    <t>Folge von "Willkommen Österreich" mit Christoph Grissemann und Dirk Stermann: Im SN-Interview sprechen die Moderatoren über Austeilen und Einstecken, Scham und Empathie, Frauenmangel und das "Schmiermittel" Redundanz.
-Mai 2007 ging ihre Show, die den Titel von der gleichnamigen ORF-Nachmittagssendung übernommen hatte, erstmals on air.
-Seither ist das Format "Willkommen Österreich" des Satirikerduos Dirk Stermann (55) und Christoph Grissemann (54) ein Fixpunkt und Quotenbringer auf ORF 1.
-Zunächst in der "Donnerstag Nacht" beheimatet, wenden sich Grissemann und Stermann seit Herbst 2012 immer dienstags an ihre Zuschauer - mit nicht immer politisch korrekten Witzen.
-In der Jubiläumsfolge sind am Dienstag (22 Uhr) Michael Niavarani, Klaus Eckel und ...</t>
   </si>
   <si>
     <t>Hazel Brugger: Die Komikerin zeigt erstes Bild mit Tochter</t>
@@ -373,24 +326,6 @@
 Ein Fehler, er sei gerade vom Joggen zurückgekommen und habe sich umgezogen, entschuldigte sich der Abgeordnete aus Quebec nachher in einer Stellungnahme.</t>
   </si>
   <si>
-    <t>Divertimento und Hazel Brugger stürmen Teenie-Plattform TikTok</t>
-  </si>
-  <si>
-    <t>25 Apr 2021</t>
-  </si>
-  <si>
-    <t>Schweizer Komiker haben ein neues Hobby gefunden: Divertimento und Hazel Brugger vertreiben sich die Zeit auf TikTok – und begeistern damit ihre Fans.</t>
-  </si>
-  <si>
-    <t>https://www.nau.ch/people/aus-der-schweiz/divertimento-und-hazel-brugger-sturmen-teenie-plattform-tiktok-65913471</t>
-  </si>
-  <si>
-    <t>In einem ihrer neusten Videos erklären sie ihre neue Leidenschaft für die Videoplattform.
-«Das ist mega jung», so Jonny.
-Jetzt, da Manus Kinder auch auf TikTok unterwegs sind, wollen die beiden offenbar nicht abgehängt werden.
-Sie stellen klar: «Das können wir auch.»</t>
-  </si>
-  <si>
     <t>Hazel Brugger und Thomas Spitzer sind Eltern geworden</t>
   </si>
   <si>
@@ -1689,6 +1624,9 @@
 Die Welt, wie wir sie heute kennen, ist ein bunter Mix.
 Und die brauchte Nahrung.
 Wie hoch der ist, zeigt sich immer drastischer: Es gibt weniger Insekten, weniger Bienen, die Lebewesen in Boden und Wasser leiden.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1759,13 +1697,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2047,15 +1986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,8 +2019,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2106,8 +2048,11 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2132,8 +2077,11 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2158,8 +2106,11 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2184,8 +2135,11 @@
       <c r="I5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2210,8 +2164,11 @@
       <c r="I6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2236,8 +2193,11 @@
       <c r="I7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2262,484 +2222,523 @@
       <c r="I8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
       </c>
       <c r="F27" t="s">
         <v>146</v>
@@ -2754,15 +2753,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>150</v>
@@ -2776,19 +2775,22 @@
       <c r="H28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -2799,195 +2801,192 @@
       <c r="H29" t="s">
         <v>13</v>
       </c>
-      <c r="I29" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>158</v>
       </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>165</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
       </c>
-      <c r="I36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>194</v>
@@ -3005,15 +3004,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>199</v>
@@ -3031,197 +3030,200 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D46" t="s">
         <v>211</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D46" t="s">
-        <v>241</v>
       </c>
       <c r="F46" t="s">
         <v>242</v>
@@ -3232,100 +3234,97 @@
       <c r="H46" t="s">
         <v>13</v>
       </c>
-      <c r="I46" t="s">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>245</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" t="s">
         <v>246</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>248</v>
       </c>
-      <c r="G47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
         <v>249</v>
       </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>251</v>
       </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
         <v>253</v>
       </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>255</v>
       </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
         <v>257</v>
       </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>259</v>
       </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
         <v>260</v>
@@ -3336,438 +3335,441 @@
       <c r="H50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" t="s">
+        <v>275</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" t="s">
+        <v>284</v>
+      </c>
+      <c r="F55" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D62" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" t="s">
-        <v>269</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>271</v>
-      </c>
-      <c r="C53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" t="s">
-        <v>273</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" t="s">
-        <v>277</v>
-      </c>
-      <c r="D54" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54" t="s">
-        <v>278</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" t="s">
-        <v>268</v>
-      </c>
-      <c r="F55" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" t="s">
-        <v>288</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>291</v>
-      </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" t="s">
-        <v>292</v>
-      </c>
-      <c r="F57" t="s">
-        <v>293</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>296</v>
-      </c>
-      <c r="C58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>306</v>
-      </c>
-      <c r="C60" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" t="s">
-        <v>268</v>
-      </c>
-      <c r="F60" t="s">
-        <v>307</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>310</v>
-      </c>
-      <c r="C61" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" t="s">
-        <v>312</v>
-      </c>
-      <c r="F61" t="s">
-        <v>313</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>316</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>317</v>
-      </c>
-      <c r="F62" t="s">
-        <v>318</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
         <v>322</v>
       </c>
       <c r="F63" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
         <v>324</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="C64" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" t="s">
         <v>326</v>
       </c>
-      <c r="C64" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
         <v>328</v>
       </c>
-      <c r="G64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
         <v>329</v>
       </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F65" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="G65" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C65" t="s">
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
         <v>332</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
         <v>333</v>
       </c>
-      <c r="F65" t="s">
+      <c r="C66" t="s">
         <v>334</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" t="s">
         <v>335</v>
       </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="G66" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
         <v>337</v>
       </c>
-      <c r="C66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" t="s">
-        <v>333</v>
-      </c>
-      <c r="F66" t="s">
-        <v>269</v>
-      </c>
-      <c r="G66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
         <v>338</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>339</v>
       </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
       <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="F67" t="s">
         <v>340</v>
-      </c>
-      <c r="F67" t="s">
-        <v>269</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>341</v>
@@ -3776,353 +3778,365 @@
         <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C68" t="s">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" t="s">
+        <v>351</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>354</v>
+      </c>
+      <c r="C70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D70" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70" t="s">
+        <v>357</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" t="s">
+        <v>361</v>
+      </c>
+      <c r="D71" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" t="s">
+        <v>363</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>366</v>
+      </c>
+      <c r="C72" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>376</v>
+      </c>
+      <c r="C74" t="s">
         <v>45</v>
       </c>
-      <c r="D69" t="s">
-        <v>340</v>
-      </c>
-      <c r="F69" t="s">
-        <v>348</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>351</v>
-      </c>
-      <c r="C70" t="s">
-        <v>352</v>
-      </c>
-      <c r="D70" t="s">
-        <v>327</v>
-      </c>
-      <c r="F70" t="s">
-        <v>353</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D74" t="s">
         <v>356</v>
       </c>
-      <c r="C71" t="s">
-        <v>357</v>
-      </c>
-      <c r="D71" t="s">
-        <v>322</v>
-      </c>
-      <c r="F71" t="s">
-        <v>358</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>361</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>362</v>
-      </c>
-      <c r="F72" t="s">
-        <v>363</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>366</v>
-      </c>
-      <c r="C73" t="s">
-        <v>367</v>
-      </c>
-      <c r="D73" t="s">
-        <v>368</v>
-      </c>
-      <c r="F73" t="s">
-        <v>369</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>372</v>
-      </c>
-      <c r="C74" t="s">
-        <v>373</v>
-      </c>
-      <c r="D74" t="s">
-        <v>374</v>
-      </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D75" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F75" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C76" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" t="s">
         <v>382</v>
       </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>384</v>
-      </c>
-      <c r="C76" t="s">
-        <v>385</v>
-      </c>
-      <c r="D76" t="s">
-        <v>386</v>
-      </c>
-      <c r="F76" t="s">
-        <v>387</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>389</v>
-      </c>
-      <c r="C77" t="s">
-        <v>311</v>
-      </c>
-      <c r="D77" t="s">
-        <v>390</v>
-      </c>
       <c r="F77" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>397</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44340.928008969982</v>
       </c>
       <c r="F78" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
       </c>
       <c r="I78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>398</v>
-      </c>
-      <c r="C79" t="s">
-        <v>399</v>
-      </c>
-      <c r="D79" t="s">
-        <v>400</v>
+      <c r="E79" s="3">
+        <v>44340.928008993127</v>
       </c>
       <c r="F79" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C80" t="s">
-        <v>405</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44340.928009016272</v>
       </c>
       <c r="F80" t="s">
+        <v>251</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
         <v>408</v>
       </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>410</v>
       </c>
       <c r="D81" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44340.928009039417</v>
       </c>
       <c r="F81" t="s">
         <v>411</v>
@@ -4137,294 +4151,178 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>414</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>402</v>
       </c>
       <c r="D82" t="s">
+        <v>397</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44340.928009074167</v>
+      </c>
+      <c r="F82" t="s">
         <v>415</v>
       </c>
-      <c r="E82" s="3">
-        <v>44340.928008969982</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G82" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
         <v>417</v>
       </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" t="s">
+        <v>397</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44340.92800909729</v>
+      </c>
+      <c r="F83" t="s">
         <v>419</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D83" t="s">
-        <v>415</v>
-      </c>
-      <c r="E83" s="3">
-        <v>44340.928008993127</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
         <v>421</v>
       </c>
-      <c r="G83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
         <v>422</v>
       </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="C84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44340.928009120449</v>
+      </c>
+      <c r="F84" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="G84" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C84" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" t="s">
-        <v>415</v>
-      </c>
-      <c r="E84" s="3">
-        <v>44340.928009016272</v>
-      </c>
-      <c r="F84" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
         <v>425</v>
       </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" t="s">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" s="3">
+        <v>44340.928009143601</v>
+      </c>
+      <c r="F85" t="s">
         <v>427</v>
       </c>
-      <c r="C85" t="s">
+      <c r="G85" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D85" t="s">
-        <v>415</v>
-      </c>
-      <c r="E85" s="3">
-        <v>44340.928009039417</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
         <v>429</v>
       </c>
-      <c r="G85" s="2" t="s">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
         <v>430</v>
       </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="C86" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44340.928009166753</v>
+      </c>
+      <c r="F86" t="s">
         <v>432</v>
       </c>
-      <c r="C86" t="s">
-        <v>420</v>
-      </c>
-      <c r="D86" t="s">
-        <v>415</v>
-      </c>
-      <c r="E86" s="3">
-        <v>44340.928009074167</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
         <v>434</v>
       </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" t="s">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" t="s">
+        <v>397</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44340.928009189913</v>
+      </c>
+      <c r="F87" t="s">
         <v>436</v>
       </c>
-      <c r="C87" t="s">
-        <v>263</v>
-      </c>
-      <c r="D87" t="s">
-        <v>415</v>
-      </c>
-      <c r="E87" s="3">
-        <v>44340.92800909729</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
         <v>438</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>440</v>
-      </c>
-      <c r="C88" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" t="s">
-        <v>415</v>
-      </c>
-      <c r="E88" s="3">
-        <v>44340.928009120449</v>
-      </c>
-      <c r="F88" t="s">
-        <v>441</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>444</v>
-      </c>
-      <c r="C89" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" t="s">
-        <v>415</v>
-      </c>
-      <c r="E89" s="3">
-        <v>44340.928009143601</v>
-      </c>
-      <c r="F89" t="s">
-        <v>445</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>448</v>
-      </c>
-      <c r="C90" t="s">
-        <v>449</v>
-      </c>
-      <c r="D90" t="s">
-        <v>415</v>
-      </c>
-      <c r="E90" s="3">
-        <v>44340.928009166753</v>
-      </c>
-      <c r="F90" t="s">
-        <v>450</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>453</v>
-      </c>
-      <c r="C91" t="s">
-        <v>263</v>
-      </c>
-      <c r="D91" t="s">
-        <v>415</v>
-      </c>
-      <c r="E91" s="3">
-        <v>44340.928009189913</v>
-      </c>
-      <c r="F91" t="s">
-        <v>454</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4436,89 +4334,85 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{30421128-DA41-4A69-8540-CB2EA970C420}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{F7AA4B0A-7F45-4666-9CB5-588971EDD1C1}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{B37F7E5F-5175-4750-B6A7-FDB18949D533}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{7B11A067-E7E1-4376-A7FA-AB9A2B72B4A6}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{BFBC8D2C-2F00-43E4-94BF-66ACED2157EE}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{14B573EF-E2C2-4DC3-9F29-D7E4D69B41EE}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{82F277D6-0D60-4B8F-8E21-5F624132E18E}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{910CC53D-436C-4891-A086-ACDA89B7E01A}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{F2CC3549-BF34-4CB6-A685-4B4EF7592E96}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{873B0AA6-8E7A-4430-A46C-5D0708BCDC02}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{802E1452-00BB-4C97-81C9-7F6A1658D32D}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{30989CB8-6ED3-4C22-A88A-39F6E3937E3B}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{B8E15E71-6864-40AB-B373-294E7B61D66A}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{93748717-0405-4F7F-BFBB-4D215ABEB59B}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{9C154674-C8B2-4B4E-A108-2B4B961627CB}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{70B5C2A7-77A1-48A2-8418-D180A3204FD7}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{D203F459-B916-4AF2-B2EA-FC1E904256E0}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{4809E1D5-F51B-4F75-B147-B3EBC6996813}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{62A41734-9339-4C92-AC05-F40F20D480ED}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{7842780B-2528-4974-A674-B7C0D8E50C3B}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{59DAFC8F-D046-492A-9C6E-C482EF7453F2}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{A5B7183A-74FC-495E-AE7C-824B2F89FC04}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{50F7B249-C1AA-4745-8637-F9A8CDFA87FD}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{79928393-5BBF-498E-A99A-869D82D36FC0}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{67085B93-75A5-4EBC-ACBE-DBD718724B9C}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{8A3CE98B-1E3B-43DC-A4FD-9AD0CB17542E}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{2CA6C723-57FB-4230-9D2D-A0BC35CF5CBD}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{0C523154-6EE1-4E3F-9B62-C1520CC30C95}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{A4B53B4D-D9CE-4F79-8686-C8FEBC09A9D9}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{B15D1BD9-4874-4A74-BEB8-FD55C85FC601}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{AC9632D2-831C-414B-83C0-94A69F114E6F}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{77D06711-0EA4-441F-A55B-55CFDCCDC0E4}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{208900B0-D0B9-4D33-BD3B-3F5583A06CD6}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{F3B8D84E-0576-48EA-9B6D-CD18046A7C97}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{C68F1BFA-D395-475E-840D-415F0BAA72AC}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{3D54ED15-4AA8-4FB5-A42C-BB2E22D8873F}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{7E4DA584-45A9-4D3E-B421-4BC7A9F4E92F}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{457BF7F8-43CC-48B7-A449-AAF64F51A1C1}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{A15DF957-64C1-44AB-9396-76AD75122A4D}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{11CCFCB6-7131-4894-90EA-68363A8B8195}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{79A9F2A0-0434-4101-B923-0A8B8C369AE4}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{B1F6FADE-9042-4D75-8429-BC21496E5EBE}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{29A340AB-CECB-4E83-B4B8-59DC653791FC}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{662F2C44-F23A-4FDF-99D5-5C1BC0353986}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{EF2A9DA3-9AA9-4FFE-9D75-387BEFAA388E}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{BC6B1D62-EF0A-4A1D-AEBB-3C197C0A089A}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{1C48345C-AD86-498B-8AD4-EA9E21A1C9FF}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{59274950-12ED-45C2-9B35-C0D971E45BCF}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{EE688841-8534-4B63-A5B4-B0F061734760}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{0AB2BF8B-9CFF-4482-9B66-D44AB5F3C9F5}"/>
-    <hyperlink ref="G56" r:id="rId55" xr:uid="{534D0D73-F6F6-4323-ABF1-D7BAADE79B3F}"/>
-    <hyperlink ref="G57" r:id="rId56" xr:uid="{2F073DBF-4690-4782-9AE5-080FB18985E4}"/>
-    <hyperlink ref="G58" r:id="rId57" xr:uid="{180DC45A-DC0E-4713-B99E-D6141D0788B6}"/>
-    <hyperlink ref="G59" r:id="rId58" xr:uid="{2AC93DB7-7A8E-414B-B7E6-30F19BF3146D}"/>
-    <hyperlink ref="G60" r:id="rId59" xr:uid="{FFD27604-7A7E-4E6F-BC30-F8F318E71A46}"/>
-    <hyperlink ref="G61" r:id="rId60" xr:uid="{4DDD2616-794F-4D5B-A5FE-5317E7B18181}"/>
-    <hyperlink ref="G62" r:id="rId61" xr:uid="{6CEF6114-9091-458C-A17A-0CB0D429E6F7}"/>
-    <hyperlink ref="G63" r:id="rId62" xr:uid="{061D24BF-27E2-4636-810C-AC170A35F9D1}"/>
-    <hyperlink ref="G64" r:id="rId63" xr:uid="{25BA4498-82AC-4FAD-A632-001E532A329B}"/>
-    <hyperlink ref="G65" r:id="rId64" xr:uid="{5FAB2E76-4B0D-4E5A-A1D5-B682B9BE732D}"/>
-    <hyperlink ref="G66" r:id="rId65" xr:uid="{6FE367AD-A914-4E77-9794-F573800C2C67}"/>
-    <hyperlink ref="G67" r:id="rId66" xr:uid="{2E22B1F1-655F-4284-973B-8F84FED924C4}"/>
-    <hyperlink ref="G68" r:id="rId67" xr:uid="{AAAB25A3-5F05-4388-92E2-AB333120BE91}"/>
-    <hyperlink ref="G69" r:id="rId68" xr:uid="{1BD7105E-68D3-4029-BCD8-C92F2302FDD9}"/>
-    <hyperlink ref="G70" r:id="rId69" xr:uid="{ABF652E1-43A3-4241-9148-4A31941576BC}"/>
-    <hyperlink ref="G71" r:id="rId70" xr:uid="{C286042B-0CAC-4DDB-A4F5-A3F5202F3486}"/>
-    <hyperlink ref="G72" r:id="rId71" xr:uid="{57C25266-EEAD-42E5-865F-B99253E5F95E}"/>
-    <hyperlink ref="G73" r:id="rId72" xr:uid="{704EE7FF-B845-4EA9-8ABA-C5F4824AAF00}"/>
-    <hyperlink ref="G74" r:id="rId73" xr:uid="{5C3FAA6C-A7EE-4E6B-A646-0CCF69B6C1F2}"/>
-    <hyperlink ref="G75" r:id="rId74" xr:uid="{2A24399A-AABE-4006-9A1E-F4AA31882A58}"/>
-    <hyperlink ref="G76" r:id="rId75" xr:uid="{C748A7D3-4D5D-403E-A6B9-565EF08FE65D}"/>
-    <hyperlink ref="G77" r:id="rId76" xr:uid="{CCEDBEAA-53E3-4683-B570-D907E4C6AAEA}"/>
-    <hyperlink ref="G78" r:id="rId77" xr:uid="{0DDEE27B-C341-4205-B9D7-D763B5077485}"/>
-    <hyperlink ref="G79" r:id="rId78" xr:uid="{D6C06C56-DC79-4319-AADA-CD2E0D2F9A87}"/>
-    <hyperlink ref="G80" r:id="rId79" xr:uid="{04DC1673-4B8C-4E2F-8E7B-79EF7760E5AB}"/>
-    <hyperlink ref="G81" r:id="rId80" xr:uid="{55A6ACB5-ACAE-45C5-AB40-6DBF5F39CA19}"/>
-    <hyperlink ref="G82" r:id="rId81" xr:uid="{38ACDA56-69C2-4E25-9FBB-CBB9FDCBBB3D}"/>
-    <hyperlink ref="G83" r:id="rId82" xr:uid="{DC583FBE-5113-4D67-87C3-0796DCFC0478}"/>
-    <hyperlink ref="G84" r:id="rId83" xr:uid="{3D1204D3-7833-4F0D-96C0-9B78635D94D3}"/>
-    <hyperlink ref="G85" r:id="rId84" xr:uid="{EFEAE422-E13D-49DF-93F8-615357A3500D}"/>
-    <hyperlink ref="G86" r:id="rId85" xr:uid="{9A471CD4-7B50-4D7C-BCD2-6FFD6D519DDF}"/>
-    <hyperlink ref="G87" r:id="rId86" xr:uid="{C0B7A8E2-B076-475D-A520-AC627FA1A908}"/>
-    <hyperlink ref="G88" r:id="rId87" xr:uid="{B1CC056C-F7D8-437B-B4FB-AC0D0BD361BF}"/>
-    <hyperlink ref="G89" r:id="rId88" xr:uid="{14F32C15-4F2A-4859-AC35-23A832333671}"/>
-    <hyperlink ref="G90" r:id="rId89" xr:uid="{699F29C6-DD27-4B51-8985-1130F84072F8}"/>
-    <hyperlink ref="G91" r:id="rId90" xr:uid="{67912A2A-9400-4E62-9953-00DCF722FD0C}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{82F277D6-0D60-4B8F-8E21-5F624132E18E}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{910CC53D-436C-4891-A086-ACDA89B7E01A}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{F2CC3549-BF34-4CB6-A685-4B4EF7592E96}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{873B0AA6-8E7A-4430-A46C-5D0708BCDC02}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{802E1452-00BB-4C97-81C9-7F6A1658D32D}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{30989CB8-6ED3-4C22-A88A-39F6E3937E3B}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{93748717-0405-4F7F-BFBB-4D215ABEB59B}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{9C154674-C8B2-4B4E-A108-2B4B961627CB}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{70B5C2A7-77A1-48A2-8418-D180A3204FD7}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{D203F459-B916-4AF2-B2EA-FC1E904256E0}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{4809E1D5-F51B-4F75-B147-B3EBC6996813}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{62A41734-9339-4C92-AC05-F40F20D480ED}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{7842780B-2528-4974-A674-B7C0D8E50C3B}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{59DAFC8F-D046-492A-9C6E-C482EF7453F2}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{A5B7183A-74FC-495E-AE7C-824B2F89FC04}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{50F7B249-C1AA-4745-8637-F9A8CDFA87FD}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{79928393-5BBF-498E-A99A-869D82D36FC0}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{67085B93-75A5-4EBC-ACBE-DBD718724B9C}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{8A3CE98B-1E3B-43DC-A4FD-9AD0CB17542E}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{2CA6C723-57FB-4230-9D2D-A0BC35CF5CBD}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{0C523154-6EE1-4E3F-9B62-C1520CC30C95}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{A4B53B4D-D9CE-4F79-8686-C8FEBC09A9D9}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{B15D1BD9-4874-4A74-BEB8-FD55C85FC601}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{AC9632D2-831C-414B-83C0-94A69F114E6F}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{77D06711-0EA4-441F-A55B-55CFDCCDC0E4}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{208900B0-D0B9-4D33-BD3B-3F5583A06CD6}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{F3B8D84E-0576-48EA-9B6D-CD18046A7C97}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{C68F1BFA-D395-475E-840D-415F0BAA72AC}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{3D54ED15-4AA8-4FB5-A42C-BB2E22D8873F}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{7E4DA584-45A9-4D3E-B421-4BC7A9F4E92F}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{457BF7F8-43CC-48B7-A449-AAF64F51A1C1}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{A15DF957-64C1-44AB-9396-76AD75122A4D}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{11CCFCB6-7131-4894-90EA-68363A8B8195}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{79A9F2A0-0434-4101-B923-0A8B8C369AE4}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{B1F6FADE-9042-4D75-8429-BC21496E5EBE}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{29A340AB-CECB-4E83-B4B8-59DC653791FC}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{662F2C44-F23A-4FDF-99D5-5C1BC0353986}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{EF2A9DA3-9AA9-4FFE-9D75-387BEFAA388E}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{BC6B1D62-EF0A-4A1D-AEBB-3C197C0A089A}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{1C48345C-AD86-498B-8AD4-EA9E21A1C9FF}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{59274950-12ED-45C2-9B35-C0D971E45BCF}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{EE688841-8534-4B63-A5B4-B0F061734760}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{0AB2BF8B-9CFF-4482-9B66-D44AB5F3C9F5}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{534D0D73-F6F6-4323-ABF1-D7BAADE79B3F}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{2F073DBF-4690-4782-9AE5-080FB18985E4}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{180DC45A-DC0E-4713-B99E-D6141D0788B6}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{2AC93DB7-7A8E-414B-B7E6-30F19BF3146D}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{FFD27604-7A7E-4E6F-BC30-F8F318E71A46}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{4DDD2616-794F-4D5B-A5FE-5317E7B18181}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{6CEF6114-9091-458C-A17A-0CB0D429E6F7}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{061D24BF-27E2-4636-810C-AC170A35F9D1}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{25BA4498-82AC-4FAD-A632-001E532A329B}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{5FAB2E76-4B0D-4E5A-A1D5-B682B9BE732D}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{6FE367AD-A914-4E77-9794-F573800C2C67}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{2E22B1F1-655F-4284-973B-8F84FED924C4}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{AAAB25A3-5F05-4388-92E2-AB333120BE91}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{1BD7105E-68D3-4029-BCD8-C92F2302FDD9}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{ABF652E1-43A3-4241-9148-4A31941576BC}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{C286042B-0CAC-4DDB-A4F5-A3F5202F3486}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{57C25266-EEAD-42E5-865F-B99253E5F95E}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{704EE7FF-B845-4EA9-8ABA-C5F4824AAF00}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{5C3FAA6C-A7EE-4E6B-A646-0CCF69B6C1F2}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{2A24399A-AABE-4006-9A1E-F4AA31882A58}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{C748A7D3-4D5D-403E-A6B9-565EF08FE65D}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{CCEDBEAA-53E3-4683-B570-D907E4C6AAEA}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{0DDEE27B-C341-4205-B9D7-D763B5077485}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{D6C06C56-DC79-4319-AADA-CD2E0D2F9A87}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{04DC1673-4B8C-4E2F-8E7B-79EF7760E5AB}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{55A6ACB5-ACAE-45C5-AB40-6DBF5F39CA19}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{38ACDA56-69C2-4E25-9FBB-CBB9FDCBBB3D}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{DC583FBE-5113-4D67-87C3-0796DCFC0478}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{3D1204D3-7833-4F0D-96C0-9B78635D94D3}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{EFEAE422-E13D-49DF-93F8-615357A3500D}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{9A471CD4-7B50-4D7C-BCD2-6FFD6D519DDF}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{C0B7A8E2-B076-475D-A520-AC627FA1A908}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{B1CC056C-F7D8-437B-B4FB-AC0D0BD361BF}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{14F32C15-4F2A-4859-AC35-23A832333671}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{699F29C6-DD27-4B51-8985-1130F84072F8}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{67912A2A-9400-4E62-9953-00DCF722FD0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
